--- a/TEORIA/EJERCICIOS/aaSOLUCIONES/T1/EJERCICIO1.xlsx
+++ b/TEORIA/EJERCICIOS/aaSOLUCIONES/T1/EJERCICIO1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8484171de3c12e77/Documentos/GitHub/Gestion-de-Proyectos/TEORIA/EJERCICIOS/aaSOLUCIONES/T1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\OneDrive\Documentos\GitHub\Gestion-de-Proyectos\TEORIA\EJERCICIOS\aaSOLUCIONES\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{2A4DA748-C8C6-474D-96CC-759CBAF884D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{35AE6CAB-084A-4DF7-A35C-63EBE6345808}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{2A4DA748-C8C6-474D-96CC-759CBAF884D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{017B6973-5CE7-4AA0-8161-F4B704933A7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EE91F74-3E7F-478C-956B-D391615056F1}"/>
+    <workbookView minimized="1" xWindow="3225" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{6EE91F74-3E7F-478C-956B-D391615056F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>IA_2año -&gt; 1000      IA_3año -&gt; 5000                                                               GA_2año -&gt; 1004    GA_3año -&gt; 2928                                                                      Con lo que hacemos lo siguiente:</t>
   </si>
   <si>
-    <t>BA_1año -&gt; 0   BA_2año -&gt; -4  BA_3año -&gt; 2072                                                 Con lo cual cogemos 2 y 3 año y hacemos lo siguiente:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -183,6 +180,9 @@
       </rPr>
       <t xml:space="preserve">                     Esto nos da el BET en dias y lo pasamos a años y meses</t>
     </r>
+  </si>
+  <si>
+    <t>BA_1año -&gt; 0   BA_2año -&gt; -4  BA_3año -&gt; 2072                                                    Xaños = años que has estado en negativo                                                          Con lo cual cogemos 2 y 3 año y hacemos lo siguiente:</t>
   </si>
 </sst>
 </file>
@@ -585,32 +585,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -621,27 +600,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -651,44 +657,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5B6DB2-7028-49E4-8D87-762665CEE082}">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,12 +1074,12 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="19"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>0</v>
@@ -1098,15 +1098,15 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="18">
+      <c r="B3" s="20"/>
+      <c r="C3" s="12">
         <f>((-(I23) * 365)/(J23-(I23))) + 2 * 365</f>
         <v>730.7032755298651</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="21"/>
       <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1127,15 +1127,15 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="18">
+      <c r="B4" s="22"/>
+      <c r="C4" s="12">
         <f>C3 / 30.42</f>
         <v>24.020489004926532</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="21"/>
       <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1156,61 +1156,61 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="18">
+      <c r="B5" s="22"/>
+      <c r="C5" s="12">
         <f xml:space="preserve"> C4 / 12</f>
         <v>2.0017074170772111</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="G5" s="12" t="s">
+      <c r="E5" s="21"/>
+      <c r="G5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="34"/>
-      <c r="G6" s="12" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="G6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="V6" s="19"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="34"/>
-      <c r="G7" s="12" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="V7" s="19"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
       <c r="G8" s="10" t="s">
         <v>10</v>
       </c>
@@ -1234,13 +1234,13 @@
         <f>(H3/5)</f>
         <v>280</v>
       </c>
-      <c r="V8" s="19"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="G9" s="10" t="s">
         <v>11</v>
       </c>
@@ -1263,15 +1263,15 @@
         <f>(I3/4)</f>
         <v>125</v>
       </c>
-      <c r="V9" s="19"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
       <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
@@ -1295,60 +1295,60 @@
         <f>SUM(L8,L9)</f>
         <v>405</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="15" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="V11" s="19"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="V11" s="13"/>
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="G12" s="15" t="s">
+      <c r="B12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="G12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="V12" s="19"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="V12" s="13"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="G13" s="15" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="G13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="V13" s="19"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="V13" s="13"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1367,17 +1367,17 @@
       <c r="L14" s="2">
         <v>4000</v>
       </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1401,17 +1401,17 @@
         <f>SUM(L4,L10)</f>
         <v>1405</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="G16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1437,31 +1437,31 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="29"/>
-      <c r="G17" s="15" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="19"/>
+      <c r="G17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="15">
         <f>(C5 - 2) * (J25-I25) + I25</f>
         <v>1006.8296683088445</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="21"/>
       <c r="G18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1486,15 +1486,15 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="15">
         <f xml:space="preserve"> (C5 - 2) * (J27 - I27) + I27</f>
         <v>1007.2850704565542</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="21"/>
       <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1520,26 +1520,26 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="34"/>
-      <c r="G20" s="15" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="G20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="G21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1565,26 +1565,26 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="15" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="G22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
       <c r="G23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1610,26 +1610,26 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="G24" s="15" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="G24" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="G25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1655,26 +1655,26 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="G26" s="15" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="G26" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
       <c r="G27" s="11" t="s">
         <v>29</v>
       </c>
@@ -1700,19 +1700,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="B12:E14"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:E25"/>
     <mergeCell ref="G22:L22"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="G26:L26"/>
@@ -1727,6 +1721,12 @@
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="G13:L13"/>
     <mergeCell ref="G17:L17"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="B12:E14"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
